--- a/results/Simulador_Fluxo-Pressao/fluxo-pressao_numerico_Implicit.xlsx
+++ b/results/Simulador_Fluxo-Pressao/fluxo-pressao_numerico_Implicit.xlsx
@@ -481,34 +481,34 @@
         <v>19000000</v>
       </c>
       <c r="C2" t="n">
-        <v>18831138.12901047</v>
+        <v>-18831138.12901047</v>
       </c>
       <c r="D2" t="n">
-        <v>13744495.9027759</v>
+        <v>-13744495.9027759</v>
       </c>
       <c r="E2" t="n">
-        <v>11119456.66159482</v>
+        <v>-11119456.66159482</v>
       </c>
       <c r="F2" t="n">
-        <v>9149999.735142399</v>
+        <v>-9149999.735142399</v>
       </c>
       <c r="G2" t="n">
-        <v>7508672.389432726</v>
+        <v>-7508672.389432726</v>
       </c>
       <c r="H2" t="n">
-        <v>6072468.62163133</v>
+        <v>-6072468.62163133</v>
       </c>
       <c r="I2" t="n">
-        <v>4779864.28208704</v>
+        <v>-4779864.28208704</v>
       </c>
       <c r="J2" t="n">
-        <v>3594965.254194303</v>
+        <v>-3594965.254194303</v>
       </c>
       <c r="K2" t="n">
-        <v>2494695.37333724</v>
+        <v>-2494695.37333724</v>
       </c>
       <c r="L2" t="n">
-        <v>1463189.827282939</v>
+        <v>-1463189.827282939</v>
       </c>
     </row>
     <row r="3">
